--- a/data/new_data/xlsx/subway_data/line1.xlsx
+++ b/data/new_data/xlsx/subway_data/line1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Git\hot-dry-noodles\data\new_data\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Git\hot-dry-noodles\data\new_data\xlsx\subway_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E106FF-D9B5-4EFF-81C6-777D897CFC39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC03479-F419-4654-AD3C-A715E19CD7F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="44">
   <si>
     <t>a</t>
   </si>
@@ -122,6 +122,36 @@
   </si>
   <si>
     <t>——</t>
+  </si>
+  <si>
+    <t>terminalcode</t>
+  </si>
+  <si>
+    <t>terminalname</t>
+  </si>
+  <si>
+    <t>linecode</t>
+  </si>
+  <si>
+    <t>firsttime</t>
+  </si>
+  <si>
+    <t>lasttime</t>
+  </si>
+  <si>
+    <t>wfirsttime</t>
+  </si>
+  <si>
+    <t>wlasttime</t>
+  </si>
+  <si>
+    <t>adjacentdistance</t>
+  </si>
+  <si>
+    <t>linename</t>
+  </si>
+  <si>
+    <t>1号线</t>
   </si>
 </sst>
 </file>
@@ -474,846 +504,971 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="9.06640625" customWidth="1"/>
+    <col min="6" max="6" width="9.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
       </c>
       <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E1" s="1">
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F2" s="1">
         <v>0.95833333333333337</v>
       </c>
-      <c r="F1" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="G1" s="1">
+      <c r="G2" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="H2" s="1">
         <v>0.95833333333333337</v>
       </c>
-      <c r="H1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F3" s="1">
         <v>0.96111111111111114</v>
       </c>
-      <c r="F2" s="1">
-        <v>0.25138888888888888</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="G3" s="1">
+        <v>0.25138888888888888</v>
+      </c>
+      <c r="H3" s="1">
         <v>0.95972222222222225</v>
       </c>
-      <c r="H2">
+      <c r="I3">
         <v>3.41</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1">
-        <v>0.25138888888888888</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.25138888888888888</v>
+      </c>
+      <c r="F4" s="1">
         <v>0.96250000000000002</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G4" s="1">
         <v>0.25347222222222221</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H4" s="1">
         <v>0.96180555555555558</v>
       </c>
-      <c r="H3">
+      <c r="I4">
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1">
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="1">
         <v>0.25277777777777782</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F5" s="1">
         <v>0.96388888888888891</v>
       </c>
-      <c r="F4" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="G5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="H5" s="1">
         <v>0.96319444444444446</v>
       </c>
-      <c r="H4">
+      <c r="I5">
         <v>1.0249999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F6" s="1">
         <v>0.96597222222222223</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G6" s="1">
         <v>0.25208333333333333</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H6" s="1">
         <v>0.96458333333333335</v>
       </c>
-      <c r="H5">
+      <c r="I6">
         <v>1.165</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1">
-        <v>0.25138888888888888</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.25138888888888888</v>
+      </c>
+      <c r="F7" s="1">
         <v>0.96736111111111112</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G7" s="1">
         <v>0.25347222222222221</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H7" s="1">
         <v>0.96666666666666667</v>
       </c>
-      <c r="H6">
+      <c r="I7">
         <v>1.4370000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1">
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="1">
         <v>0.25347222222222221</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F8" s="1">
         <v>0.96944444444444444</v>
       </c>
-      <c r="F7" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="G8" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="H8" s="1">
         <v>0.96805555555555556</v>
       </c>
-      <c r="H7">
+      <c r="I8">
         <v>1.5249999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E8" s="1">
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F9" s="1">
         <v>0.97083333333333333</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G9" s="1">
         <v>0.25069444444444439</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H9" s="1">
         <v>0.96944444444444444</v>
       </c>
-      <c r="H8">
+      <c r="I9">
         <v>0.79500000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1">
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="1">
         <v>0.25069444444444439</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F10" s="1">
         <v>0.97222222222222221</v>
       </c>
-      <c r="F9" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="G9" s="1">
+      <c r="G10" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="H10" s="1">
         <v>0.97152777777777777</v>
       </c>
-      <c r="H9">
+      <c r="I10">
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E10" s="1">
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F11" s="1">
         <v>0.97361111111111109</v>
       </c>
-      <c r="F10" s="1">
-        <v>0.25138888888888888</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="G11" s="1">
+        <v>0.25138888888888888</v>
+      </c>
+      <c r="H11" s="1">
         <v>0.97361111111111109</v>
       </c>
-      <c r="H10">
+      <c r="I11">
         <v>1.2030000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="1">
-        <v>0.25138888888888888</v>
-      </c>
-      <c r="E11" s="1">
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.25138888888888888</v>
+      </c>
+      <c r="F12" s="1">
         <v>0.97569444444444442</v>
       </c>
-      <c r="F11" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="G12" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="H12" s="1">
         <v>0.97430555555555554</v>
       </c>
-      <c r="H11">
+      <c r="I12">
         <v>1.155</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F13" s="1">
         <v>0.9770833333333333</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G13" s="1">
         <v>0.25069444444444439</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H13" s="1">
         <v>0.97569444444444442</v>
       </c>
-      <c r="H12">
+      <c r="I13">
         <v>1.01</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F14" s="1">
         <v>0.97916666666666663</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G14" s="1">
         <v>0.25208333333333333</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H14" s="1">
         <v>0.9770833333333333</v>
       </c>
-      <c r="H13">
+      <c r="I14">
         <v>1.083</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="1">
-        <v>0.25138888888888888</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.25138888888888888</v>
+      </c>
+      <c r="F15" s="1">
         <v>0.98055555555555551</v>
       </c>
-      <c r="F14" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="G15" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="H15" s="1">
         <v>0.97847222222222219</v>
       </c>
-      <c r="H14">
+      <c r="I15">
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F16" s="1">
         <v>0.9819444444444444</v>
       </c>
-      <c r="F15" s="1">
-        <v>0.25138888888888888</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="G16" s="1">
+        <v>0.25138888888888888</v>
+      </c>
+      <c r="H16" s="1">
         <v>0.98055555555555551</v>
       </c>
-      <c r="H15">
+      <c r="I16">
         <v>0.88800000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="1">
-        <v>0.25138888888888888</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.25138888888888888</v>
+      </c>
+      <c r="F17" s="1">
         <v>0.98333333333333328</v>
       </c>
-      <c r="F16" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="G17" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="H17" s="1">
         <v>0.9819444444444444</v>
       </c>
-      <c r="H16">
+      <c r="I17">
         <v>0.88</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F18" s="1">
         <v>0.98472222222222228</v>
       </c>
-      <c r="F17" s="1">
-        <v>0.25138888888888888</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="G18" s="1">
+        <v>0.25138888888888888</v>
+      </c>
+      <c r="H18" s="1">
         <v>0.98333333333333328</v>
       </c>
-      <c r="H17">
+      <c r="I18">
         <v>1.1419999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="1">
-        <v>0.25138888888888888</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.25138888888888888</v>
+      </c>
+      <c r="F19" s="1">
         <v>0.98611111111111116</v>
       </c>
-      <c r="F18" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="G19" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="H19" s="1">
         <v>0.98541666666666672</v>
       </c>
-      <c r="H18">
+      <c r="I19">
         <v>1.0449999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F20" s="1">
         <v>0.98819444444444449</v>
       </c>
-      <c r="F19" s="1">
-        <v>0.25138888888888888</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="G20" s="1">
+        <v>0.25138888888888888</v>
+      </c>
+      <c r="H20" s="1">
         <v>0.9868055555555556</v>
       </c>
-      <c r="H19">
+      <c r="I20">
         <v>1.58</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21">
         <v>19</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="1">
-        <v>0.25138888888888888</v>
-      </c>
-      <c r="E20" s="1">
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.25138888888888888</v>
+      </c>
+      <c r="F21" s="1">
         <v>0.98958333333333337</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G21" s="1">
         <v>0.25277777777777782</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H21" s="1">
         <v>0.98819444444444449</v>
       </c>
-      <c r="H20">
+      <c r="I21">
         <v>0.92100000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="1">
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="1">
         <v>0.25208333333333333</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F22" s="1">
         <v>0.99097222222222225</v>
       </c>
-      <c r="F21" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="G22" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="H22" s="1">
         <v>0.98958333333333337</v>
       </c>
-      <c r="H21">
+      <c r="I22">
         <v>0.82</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23">
         <v>21</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E22" s="1">
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F23" s="1">
         <v>0.99236111111111114</v>
       </c>
-      <c r="F22" s="1">
-        <v>0.25138888888888888</v>
-      </c>
-      <c r="G22" s="1">
+      <c r="G23" s="1">
+        <v>0.25138888888888888</v>
+      </c>
+      <c r="H23" s="1">
         <v>0.9916666666666667</v>
       </c>
-      <c r="H22">
+      <c r="I23">
         <v>0.79500000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24">
         <v>22</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="1">
-        <v>0.25138888888888888</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.25138888888888888</v>
+      </c>
+      <c r="F24" s="1">
         <v>0.99375000000000002</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G24" s="1">
         <v>0.25277777777777782</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H24" s="1">
         <v>0.99305555555555558</v>
       </c>
-      <c r="H23">
+      <c r="I24">
         <v>0.90700000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="1">
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="1">
         <v>0.25277777777777782</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F25" s="1">
         <v>0.99513888888888891</v>
       </c>
-      <c r="F24" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="G24" s="1">
+      <c r="G25" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="H25" s="1">
         <v>0.99444444444444446</v>
       </c>
-      <c r="H24">
+      <c r="I25">
         <v>1.518</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="C26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F26" s="1">
         <v>0.99722222222222223</v>
       </c>
-      <c r="F25" s="1">
-        <v>0.25138888888888888</v>
-      </c>
-      <c r="G25" s="1">
+      <c r="G26" s="1">
+        <v>0.25138888888888888</v>
+      </c>
+      <c r="H26" s="1">
         <v>0.99583333333333335</v>
       </c>
-      <c r="H25">
+      <c r="I26">
         <v>1.4350000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="1">
-        <v>0.25138888888888888</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.25138888888888888</v>
+      </c>
+      <c r="F27" s="1">
         <v>0.99861111111111112</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G27" s="1">
         <v>0.25208333333333333</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H27" s="1">
         <v>0.99722222222222223</v>
       </c>
-      <c r="H26">
+      <c r="I27">
         <v>0.80700000000000005</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
+      <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="1">
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="1">
         <v>0.25208333333333333</v>
       </c>
-      <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1">
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
         <v>0.25416666666666671</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H28" s="1">
         <v>0.99930555555555556</v>
       </c>
-      <c r="H27">
+      <c r="I28">
         <v>0.94399999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29">
         <v>27</v>
       </c>
-      <c r="C28" t="s">
+      <c r="B29" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F29" s="1">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="F28" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="G28" s="1">
+      <c r="G29" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="H29" s="1">
         <v>1.3888888888888889E-3</v>
       </c>
-      <c r="H28">
+      <c r="I29">
         <v>1.655</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30">
         <v>28</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B30" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="1">
-        <v>0.25138888888888888</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="C30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.25138888888888888</v>
+      </c>
+      <c r="F30" s="1">
         <v>3.472222222222222E-3</v>
       </c>
-      <c r="F29" s="1">
-        <v>0.25138888888888888</v>
-      </c>
-      <c r="G29" s="1">
+      <c r="G30" s="1">
+        <v>0.25138888888888888</v>
+      </c>
+      <c r="H30" s="1">
         <v>2.7777777777777779E-3</v>
       </c>
-      <c r="H29">
+      <c r="I30">
         <v>1.6519999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="C30" t="s">
+      <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="F31" s="1">
         <v>4.8611111111111112E-3</v>
       </c>
-      <c r="F30" s="1">
+      <c r="G31" s="1">
         <v>0.25277777777777782</v>
       </c>
-      <c r="G30" s="1">
+      <c r="H31" s="1">
         <v>4.1666666666666666E-3</v>
       </c>
-      <c r="H30">
+      <c r="I31">
         <v>1.0369999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32">
         <v>30</v>
       </c>
-      <c r="C31" t="s">
+      <c r="B32" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="1">
-        <v>0.25138888888888888</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="C32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>43</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.25138888888888888</v>
+      </c>
+      <c r="F32" s="1">
         <v>6.9444444444444441E-3</v>
       </c>
-      <c r="F31" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="G31" s="1">
+      <c r="G32" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="H32" s="1">
         <v>5.5555555555555558E-3</v>
       </c>
-      <c r="H31">
+      <c r="I32">
         <v>1.9710000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33">
         <v>31</v>
       </c>
-      <c r="C32" t="s">
+      <c r="B33" t="s">
         <v>32</v>
       </c>
-      <c r="D32" t="s">
+      <c r="C33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="1">
+      <c r="F33" s="1">
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G33" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="1">
+      <c r="H33" s="1">
         <v>8.3333333333333332E-3</v>
       </c>
-      <c r="H32">
+      <c r="I33">
         <v>1.1100000000000001</v>
       </c>
     </row>

--- a/data/new_data/xlsx/subway_data/line1.xlsx
+++ b/data/new_data/xlsx/subway_data/line1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Git\hot-dry-noodles\data\new_data\xlsx\subway_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Git\hot-dry-noodles\docs\data\new_data\xlsx\subway_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC03479-F419-4654-AD3C-A715E19CD7F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9126467C-8B30-41C9-8D4D-7609CC77F919}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,6 +158,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="h:mm:ss;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -187,9 +190,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -506,13 +510,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="6" max="6" width="9.06640625" customWidth="1"/>
+    <col min="6" max="6" width="9.06640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
@@ -531,7 +535,7 @@
       <c r="E1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G1" t="s">
@@ -560,7 +564,7 @@
       <c r="E2" s="1">
         <v>0.25</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>0.95833333333333337</v>
       </c>
       <c r="G2" s="1">
@@ -589,7 +593,7 @@
       <c r="E3" s="1">
         <v>0.25</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>0.96111111111111114</v>
       </c>
       <c r="G3" s="1">
@@ -618,7 +622,7 @@
       <c r="E4" s="1">
         <v>0.25138888888888888</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>0.96250000000000002</v>
       </c>
       <c r="G4" s="1">
@@ -647,7 +651,7 @@
       <c r="E5" s="1">
         <v>0.25277777777777782</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>0.96388888888888891</v>
       </c>
       <c r="G5" s="1">
@@ -676,7 +680,7 @@
       <c r="E6" s="1">
         <v>0.25</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>0.96597222222222223</v>
       </c>
       <c r="G6" s="1">
@@ -705,7 +709,7 @@
       <c r="E7" s="1">
         <v>0.25138888888888888</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>0.96736111111111112</v>
       </c>
       <c r="G7" s="1">
@@ -734,7 +738,7 @@
       <c r="E8" s="1">
         <v>0.25347222222222221</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>0.96944444444444444</v>
       </c>
       <c r="G8" s="1">
@@ -763,7 +767,7 @@
       <c r="E9" s="1">
         <v>0.25</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>0.97083333333333333</v>
       </c>
       <c r="G9" s="1">
@@ -792,7 +796,7 @@
       <c r="E10" s="1">
         <v>0.25069444444444439</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>0.97222222222222221</v>
       </c>
       <c r="G10" s="1">
@@ -821,7 +825,7 @@
       <c r="E11" s="1">
         <v>0.25</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>0.97361111111111109</v>
       </c>
       <c r="G11" s="1">
@@ -850,7 +854,7 @@
       <c r="E12" s="1">
         <v>0.25138888888888888</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>0.97569444444444442</v>
       </c>
       <c r="G12" s="1">
@@ -879,7 +883,7 @@
       <c r="E13" s="1">
         <v>0.25</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>0.9770833333333333</v>
       </c>
       <c r="G13" s="1">
@@ -908,7 +912,7 @@
       <c r="E14" s="1">
         <v>0.25</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>0.97916666666666663</v>
       </c>
       <c r="G14" s="1">
@@ -937,7 +941,7 @@
       <c r="E15" s="1">
         <v>0.25138888888888888</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>0.98055555555555551</v>
       </c>
       <c r="G15" s="1">
@@ -966,7 +970,7 @@
       <c r="E16" s="1">
         <v>0.25</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>0.9819444444444444</v>
       </c>
       <c r="G16" s="1">
@@ -995,7 +999,7 @@
       <c r="E17" s="1">
         <v>0.25138888888888888</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>0.98333333333333328</v>
       </c>
       <c r="G17" s="1">
@@ -1024,7 +1028,7 @@
       <c r="E18" s="1">
         <v>0.25</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>0.98472222222222228</v>
       </c>
       <c r="G18" s="1">
@@ -1053,7 +1057,7 @@
       <c r="E19" s="1">
         <v>0.25138888888888888</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="2">
         <v>0.98611111111111116</v>
       </c>
       <c r="G19" s="1">
@@ -1082,7 +1086,7 @@
       <c r="E20" s="1">
         <v>0.25</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>0.98819444444444449</v>
       </c>
       <c r="G20" s="1">
@@ -1111,7 +1115,7 @@
       <c r="E21" s="1">
         <v>0.25138888888888888</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>0.98958333333333337</v>
       </c>
       <c r="G21" s="1">
@@ -1140,7 +1144,7 @@
       <c r="E22" s="1">
         <v>0.25208333333333333</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>0.99097222222222225</v>
       </c>
       <c r="G22" s="1">
@@ -1169,7 +1173,7 @@
       <c r="E23" s="1">
         <v>0.25</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>0.99236111111111114</v>
       </c>
       <c r="G23" s="1">
@@ -1198,7 +1202,7 @@
       <c r="E24" s="1">
         <v>0.25138888888888888</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>0.99375000000000002</v>
       </c>
       <c r="G24" s="1">
@@ -1227,7 +1231,7 @@
       <c r="E25" s="1">
         <v>0.25277777777777782</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <v>0.99513888888888891</v>
       </c>
       <c r="G25" s="1">
@@ -1256,7 +1260,7 @@
       <c r="E26" s="1">
         <v>0.25</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>0.99722222222222223</v>
       </c>
       <c r="G26" s="1">
@@ -1285,7 +1289,7 @@
       <c r="E27" s="1">
         <v>0.25138888888888888</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <v>0.99861111111111112</v>
       </c>
       <c r="G27" s="1">
@@ -1314,7 +1318,7 @@
       <c r="E28" s="1">
         <v>0.25208333333333333</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="2">
         <v>0</v>
       </c>
       <c r="G28" s="1">
@@ -1343,7 +1347,7 @@
       <c r="E29" s="1">
         <v>0.25</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="2">
         <v>1.3888888888888889E-3</v>
       </c>
       <c r="G29" s="1">
@@ -1372,7 +1376,7 @@
       <c r="E30" s="1">
         <v>0.25138888888888888</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="2">
         <v>3.472222222222222E-3</v>
       </c>
       <c r="G30" s="1">
@@ -1401,7 +1405,7 @@
       <c r="E31" s="1">
         <v>0.25</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="2">
         <v>4.8611111111111112E-3</v>
       </c>
       <c r="G31" s="1">
@@ -1430,7 +1434,7 @@
       <c r="E32" s="1">
         <v>0.25138888888888888</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="2">
         <v>6.9444444444444441E-3</v>
       </c>
       <c r="G32" s="1">
@@ -1459,7 +1463,7 @@
       <c r="E33" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="2">
         <v>8.3333333333333332E-3</v>
       </c>
       <c r="G33" t="s">
@@ -1474,5 +1478,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>